--- a/Data Input Sheets/G Drive Files/Important Character Sheet.xlsx
+++ b/Data Input Sheets/G Drive Files/Important Character Sheet.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mango\OneDrive\Documents\GitHub\pokemon_game\Data Input Sheets\G Drive Files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="73" documentId="11_9DDAFB4AC3FBCE042DC50DFECFD9B8D0A316328F" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{AEBB72F8-2049-4E88-9749-098F6F8FD10F}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="482">
   <si>
     <t>Character</t>
   </si>
@@ -511,9 +520,6 @@
     <t>Carracosta</t>
   </si>
   <si>
-    <t>Victribel</t>
-  </si>
-  <si>
     <t>Dugtrio</t>
   </si>
   <si>
@@ -1343,79 +1349,504 @@
   </si>
   <si>
     <t>Vivi</t>
+  </si>
+  <si>
+    <t>Rachel Cote</t>
+  </si>
+  <si>
+    <t>Olivia Gerczak</t>
+  </si>
+  <si>
+    <t>Rachel Welch</t>
+  </si>
+  <si>
+    <t>Rachel Wittkopp</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>Claire Conard</t>
+  </si>
+  <si>
+    <t>Liz Landes</t>
+  </si>
+  <si>
+    <t>Drew Fleek</t>
+  </si>
+  <si>
+    <t>Jason Fast</t>
+  </si>
+  <si>
+    <t>Dr. Dave Hall</t>
+  </si>
+  <si>
+    <t>Dr. Stefan Debbert</t>
+  </si>
+  <si>
+    <t>TPP Player</t>
+  </si>
+  <si>
+    <t>Teacher turned Adventurer</t>
+  </si>
+  <si>
+    <t>Strong Quick witted Trainer</t>
+  </si>
+  <si>
+    <t>Scientist researching Pokemon Energy</t>
+  </si>
+  <si>
+    <t>Compassionate Pokemon/Human Activist</t>
+  </si>
+  <si>
+    <t>Leading Trainer of West Johto</t>
+  </si>
+  <si>
+    <t>Traveling Adventurer and Farmer</t>
+  </si>
+  <si>
+    <t>Actress and Trainer</t>
+  </si>
+  <si>
+    <t>EV Trainer</t>
+  </si>
+  <si>
+    <t>Orange Scientist, Leader</t>
+  </si>
+  <si>
+    <t>Mentally Disturbed Pokemon Trainer</t>
+  </si>
+  <si>
+    <t>Empoleon</t>
+  </si>
+  <si>
+    <t>Luxray</t>
+  </si>
+  <si>
+    <t>Slaking</t>
+  </si>
+  <si>
+    <t>Relic Roserade</t>
+  </si>
+  <si>
+    <t>Galaxagos</t>
+  </si>
+  <si>
+    <t>Eevee</t>
+  </si>
+  <si>
+    <t>Orbatom</t>
+  </si>
+  <si>
+    <t>Fumighast</t>
+  </si>
+  <si>
+    <t>Castform</t>
+  </si>
+  <si>
+    <t>Omanyte</t>
+  </si>
+  <si>
+    <t>Zapdos</t>
+  </si>
+  <si>
+    <t>Relic Gogoat</t>
+  </si>
+  <si>
+    <t>Starmie</t>
+  </si>
+  <si>
+    <t>Fuelong</t>
+  </si>
+  <si>
+    <t>Sepentia</t>
+  </si>
+  <si>
+    <t>Goruchu</t>
+  </si>
+  <si>
+    <t>Forusk</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:W108"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G80" sqref="G80"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="16.86"/>
-    <col customWidth="1" min="2" max="2" width="29.0"/>
-    <col customWidth="1" min="3" max="3" width="20.43"/>
-    <col customWidth="1" min="4" max="4" width="35.86"/>
-    <col customWidth="1" min="8" max="8" width="16.29"/>
-    <col customWidth="1" min="13" max="13" width="15.14"/>
-    <col customWidth="1" min="17" max="17" width="28.29"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="44.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" customWidth="1"/>
+    <col min="4" max="4" width="35.85546875" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" customWidth="1"/>
+    <col min="17" max="17" width="28.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1465,25 +1896,25 @@
         <v>15</v>
       </c>
       <c r="R1" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="S1" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="T1" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="U1" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="V1" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="W1" s="1">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
@@ -1509,7 +1940,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>24</v>
       </c>
@@ -1562,7 +1993,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>41</v>
       </c>
@@ -1615,7 +2046,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>57</v>
       </c>
@@ -1662,7 +2093,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>70</v>
       </c>
@@ -1709,7 +2140,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>85</v>
       </c>
@@ -1738,7 +2169,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>93</v>
       </c>
@@ -1767,7 +2198,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>102</v>
       </c>
@@ -1796,7 +2227,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>108</v>
       </c>
@@ -1825,7 +2256,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>114</v>
       </c>
@@ -1851,7 +2282,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>119</v>
       </c>
@@ -1877,7 +2308,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>126</v>
       </c>
@@ -1906,7 +2337,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>130</v>
       </c>
@@ -1932,7 +2363,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>134</v>
       </c>
@@ -1961,7 +2392,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>140</v>
       </c>
@@ -1990,7 +2421,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>144</v>
       </c>
@@ -2016,7 +2447,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>150</v>
       </c>
@@ -2042,7 +2473,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>154</v>
       </c>
@@ -2065,7 +2496,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>158</v>
       </c>
@@ -2091,7 +2522,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>163</v>
       </c>
@@ -2105,21 +2536,21 @@
         <v>89</v>
       </c>
       <c r="G21" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="H21" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="I21" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="J21" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="J21" s="2" t="s">
+    </row>
+    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
         <v>169</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="s">
-        <v>170</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>91</v>
@@ -2134,181 +2565,181 @@
         <v>137</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="F23" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="G23" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>177</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>124</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="F24" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>183</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>98</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>79</v>
       </c>
       <c r="J24" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="s">
+      <c r="E25" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="F25" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="G25" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>188</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>28</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="E26" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="F26" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="G26" s="2" t="s">
         <v>193</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>194</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>82</v>
       </c>
       <c r="I26" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="J26" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="J26" s="2" t="s">
+    </row>
+    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="s">
+      <c r="E27" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="F27" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="G27" s="2" t="s">
         <v>199</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>200</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>67</v>
       </c>
       <c r="I27" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="J27" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="s">
-        <v>202</v>
-      </c>
       <c r="E28" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>125</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H28" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="I28" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="I28" s="2" t="s">
+      <c r="J28" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="J28" s="2" t="s">
+    </row>
+    <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="s">
+      <c r="B29" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>207</v>
-      </c>
       <c r="E29" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>149</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>118</v>
@@ -2320,24 +2751,24 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="E30" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="F30" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="G30" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="H30" s="2" t="s">
         <v>213</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>214</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>160</v>
@@ -2346,44 +2777,44 @@
         <v>49</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="E31" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="F31" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="G31" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="H31" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="H31" s="2" t="s">
+      <c r="I31" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="I31" s="2" t="s">
+      <c r="J31" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="J31" s="2" t="s">
+    </row>
+    <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="E32" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>224</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>225</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>53</v>
@@ -2398,14 +2829,14 @@
         <v>111</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>113</v>
@@ -2417,62 +2848,62 @@
         <v>157</v>
       </c>
       <c r="I33" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="J33" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="J33" s="2" t="s">
+    </row>
+    <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="s">
+      <c r="B34" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="C34" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="D34" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="E34" s="2" t="s">
         <v>232</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>233</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>74</v>
       </c>
       <c r="G34" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="H34" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="H34" s="2" t="s">
-        <v>235</v>
-      </c>
       <c r="I34" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J34" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="C35" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>237</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>238</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>98</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>29</v>
@@ -2484,59 +2915,59 @@
         <v>160</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="36">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="C36" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="D36" s="2" t="s">
+      <c r="E36" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F36" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="E36" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="F36" s="2" t="s">
+      <c r="G36" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="G36" s="2" t="s">
+      <c r="H36" s="2" t="s">
         <v>244</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>245</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>157</v>
       </c>
       <c r="J36" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="s">
+      <c r="B37" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="C37" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>248</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>249</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>68</v>
@@ -2548,21 +2979,21 @@
         <v>48</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F38" s="2" t="s">
         <v>248</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>249</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>29</v>
@@ -2574,24 +3005,24 @@
         <v>90</v>
       </c>
       <c r="J38" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="s">
+      <c r="B39" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="D39" s="2" t="s">
+      <c r="E39" s="2" t="s">
         <v>254</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>255</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>68</v>
@@ -2600,24 +3031,24 @@
         <v>116</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>97</v>
       </c>
       <c r="J39" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="s">
+      <c r="B40" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>259</v>
-      </c>
       <c r="C40" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>100</v>
@@ -2626,169 +3057,177 @@
         <v>99</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H40" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="I40" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="I40" s="2" t="s">
+      <c r="J40" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="J40" s="2" t="s">
+    </row>
+    <row r="41" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="s">
+      <c r="B41" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="E41" s="2" t="s">
+      <c r="F41" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="G41" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="G41" s="2" t="s">
+      <c r="H41" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="H41" s="2" t="s">
+      <c r="I41" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="I41" s="2" t="s">
+      <c r="J41" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="J41" s="2" t="s">
+    </row>
+    <row r="42" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="s">
+      <c r="B42" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="C42" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="D42" s="2" t="s">
+      <c r="E42" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="F42" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="G42" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="G42" s="2" t="s">
+      <c r="H42" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="H42" s="2" t="s">
+      <c r="I42" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="I42" s="2" t="s">
+      <c r="J42" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="J42" s="2" t="s">
+    </row>
+    <row r="43" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="s">
+      <c r="B43" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="D43" s="2" t="s">
+      <c r="E43" s="2" t="s">
         <v>280</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>281</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>143</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H43" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="I43" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="I43" s="2" t="s">
+      <c r="J43" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="J43" s="2" t="s">
+    </row>
+    <row r="44" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="s">
+      <c r="B44" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="C44" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="E44" s="2" t="s">
+      <c r="F44" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="G44" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="G44" s="2" t="s">
+      <c r="H44" s="2" t="s">
         <v>289</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>290</v>
       </c>
       <c r="I44" s="2" t="s">
         <v>39</v>
       </c>
       <c r="J44" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="s">
-        <v>292</v>
-      </c>
       <c r="B45" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
-    </row>
-    <row r="46">
+      <c r="G45" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -2796,41 +3235,53 @@
         <v>98</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>75</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I46" s="2" t="s">
         <v>79</v>
       </c>
       <c r="J46" s="2"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
-    </row>
-    <row r="48">
+      <c r="E47" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>78</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -2841,887 +3292,1128 @@
         <v>80</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>82</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J48" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="s">
+      <c r="B49" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="C49" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>300</v>
-      </c>
       <c r="E49" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>89</v>
       </c>
       <c r="G49" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="I49" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="H49" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>302</v>
-      </c>
       <c r="J49" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="50">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>303</v>
+        <v>443</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>305</v>
-      </c>
+        <v>455</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
       <c r="E50" s="2" t="s">
-        <v>284</v>
+        <v>470</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>306</v>
+        <v>156</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="I50" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+    </row>
+    <row r="51" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+    </row>
+    <row r="52" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="G52" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="J50" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="J51" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>306</v>
-      </c>
       <c r="H52" s="2" t="s">
-        <v>256</v>
+        <v>281</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="53">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>318</v>
+        <v>446</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="J53" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="54">
+        <v>458</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+    </row>
+    <row r="54" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>324</v>
+        <v>447</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>325</v>
-      </c>
+        <v>459</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
       <c r="E54" s="2" t="s">
-        <v>307</v>
+        <v>49</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>326</v>
+        <v>476</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>153</v>
+        <v>477</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>274</v>
+        <v>478</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>327</v>
+        <v>479</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="55">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>328</v>
+        <v>449</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>330</v>
-      </c>
+        <v>460</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
       <c r="E55" s="2" t="s">
-        <v>168</v>
+        <v>481</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="J55" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="56">
+        <v>100</v>
+      </c>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+    </row>
+    <row r="56" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>334</v>
+        <v>448</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>335</v>
-      </c>
+        <v>461</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
       <c r="E56" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="I56" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="J56" s="2" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="57">
+        <v>347</v>
+      </c>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+    </row>
+    <row r="57" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>342</v>
+        <v>450</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="58">
+        <v>462</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+    </row>
+    <row r="58" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>344</v>
+        <v>451</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="H58" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="I58" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="J58" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="59">
+        <v>462</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+    </row>
+    <row r="59" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>351</v>
+        <v>452</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>352</v>
+        <v>463</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
-      <c r="E59" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="I59" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="J59" s="2" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="60">
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+    </row>
+    <row r="60" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>356</v>
+        <v>453</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>357</v>
+        <v>463</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
-      <c r="E60" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="F60" s="2" t="s">
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+    </row>
+    <row r="61" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A70" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A72" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F72" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G60" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="H60" s="2" t="s">
+      <c r="G72" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="H72" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="I60" s="2" t="s">
+      <c r="I72" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="J72" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="J60" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="s">
+      <c r="B73" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A74" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B74" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A76" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A77" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A78" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A79" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A80" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F80" s="2"/>
+    </row>
+    <row r="82" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C82" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D82" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="E82" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F61" s="1" t="s">
+      <c r="F82" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G61" s="1" t="s">
+      <c r="G82" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H61" s="1" t="s">
+      <c r="H82" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I61" s="1" t="s">
+      <c r="I82" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J61" s="1" t="s">
+      <c r="J82" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="C62" s="2" t="s">
+    <row r="83" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A83" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="J83" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A84" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A85" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H85" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="E62" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F63" s="2" t="s">
+      <c r="I85" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="J85" s="2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A86" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A87" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A88" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="F88" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="G63" s="2" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="F66" s="2" t="s">
+    </row>
+    <row r="89" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A89" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A90" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="G90" s="2"/>
+    </row>
+    <row r="91" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A91" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A92" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A93" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A94" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="I94" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A95" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="G95" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G66" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="H67" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="I67" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="B70" s="2" t="s">
+      <c r="H95" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="I95" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="J95" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A96" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="I96" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="J96" s="2" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A97" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A98" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A99" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B101" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C101" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D70" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E70" s="2" t="s">
+      <c r="D101" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="E101" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F70" s="2" t="s">
+      <c r="F101" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G70" s="2" t="s">
+      <c r="G101" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H70" s="2" t="s">
+      <c r="H101" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I70" s="2" t="s">
+      <c r="I101" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J70" s="2" t="s">
+      <c r="J101" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="H71" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="I71" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="J71" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="G72" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="H72" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="I72" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="D73" s="2" t="s">
+    <row r="102" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A102" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A103" s="2" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A104" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="E104" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="E73" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="H73" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="I73" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="J73" s="2" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G74" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="H74" s="2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="G75" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="G77" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="G78" s="2"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="G81" s="2" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="G82" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="H82" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="I82" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="G83" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H83" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="I83" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="J83" s="2" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="G84" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H84" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="I84" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="J84" s="2" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H89" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I89" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J89" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="2" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="2" t="s">
+    </row>
+    <row r="105" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A105" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="E92" s="2" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="2" t="s">
+    </row>
+    <row r="106" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A106" s="2" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="2" t="s">
+    <row r="107" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A107" s="2" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="2" t="s">
+    <row r="108" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A108" s="2" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>